--- a/media/system_files/quotation_template_other.xlsx
+++ b/media/system_files/quotation_template_other.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Desktop\ERP\media\system_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB0580F-EDD8-4FC3-91BF-204B2DB523BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF7F795-B9D2-4C9F-8A09-8D898A6B0531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{12B76296-03D3-4EB6-8CB4-775C206DF403}"/>
   </bookViews>
@@ -550,15 +550,15 @@
     <t>all_sum</t>
   </si>
   <si>
-    <t>tel</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
     <t>CLIENT</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>hide_name</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEL</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1532,20 +1532,104 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1580,27 +1664,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1610,77 +1673,14 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2003,7 +2003,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+      <selection activeCell="G4" sqref="G4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2031,19 +2031,19 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
+      <c r="B2" s="119" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
       <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="77"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
@@ -2074,19 +2074,19 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
       <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="76"/>
+      <c r="G3" s="104" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="104"/>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
@@ -2117,19 +2117,19 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="78"/>
+      <c r="H4" s="105"/>
       <c r="I4" s="11" t="s">
         <v>8</v>
       </c>
@@ -2158,10 +2158,10 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
       <c r="F5" s="12"/>
@@ -2195,12 +2195,12 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="73"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
       <c r="F6" s="9"/>
       <c r="I6" s="11" t="s">
         <v>12</v>
@@ -2232,20 +2232,20 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="109"/>
       <c r="I7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -2302,12 +2302,12 @@
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="17" t="s">
         <v>17</v>
       </c>
@@ -2347,19 +2347,19 @@
       <c r="A10" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="114"/>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="88"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="88"/>
-      <c r="N10" s="88"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
       <c r="O10" s="28"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="11" spans="1:29" s="6" customFormat="1" ht="39.75" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="91"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="99"/>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
@@ -2409,10 +2409,10 @@
     </row>
     <row r="12" spans="1:29" s="6" customFormat="1" ht="24.75" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="91"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="99"/>
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
       <c r="H12" s="24"/>
@@ -2440,10 +2440,10 @@
     </row>
     <row r="13" spans="1:29" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="94"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="24"/>
@@ -2471,10 +2471,10 @@
     </row>
     <row r="14" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="30"/>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="15" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="117"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="30"/>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="16" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
@@ -2564,10 +2564,10 @@
     </row>
     <row r="17" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="108"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="34"/>
@@ -2595,10 +2595,10 @@
     </row>
     <row r="18" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="108"/>
       <c r="F18" s="32"/>
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
@@ -2626,10 +2626,10 @@
     </row>
     <row r="19" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="34"/>
@@ -2656,18 +2656,18 @@
       <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="1:29" s="6" customFormat="1" ht="107.25" customHeight="1" thickBot="1">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="110"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
       <c r="K20" s="35"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2689,19 +2689,19 @@
       <c r="AC20" s="3"/>
     </row>
     <row r="21" spans="1:29" s="6" customFormat="1" ht="23.1" customHeight="1" thickTop="1">
-      <c r="A21" s="111" t="s">
+      <c r="A21" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="117" t="s">
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="88"/>
+      <c r="H21" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="118"/>
+      <c r="I21" s="93"/>
       <c r="J21" s="36" t="s">
         <v>51</v>
       </c>
@@ -2726,17 +2726,17 @@
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="1:29" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A22" s="114"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="119" t="s">
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="120"/>
+      <c r="I22" s="95"/>
       <c r="J22" s="38" t="s">
         <v>52</v>
       </c>
@@ -2761,17 +2761,17 @@
       <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="1:29" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A23" s="114"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="119" t="s">
+      <c r="A23" s="89"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="120"/>
+      <c r="I23" s="95"/>
       <c r="J23" s="39" t="s">
         <v>53</v>
       </c>
@@ -2796,18 +2796,18 @@
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="1:29" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A24" s="98" t="s">
+      <c r="A24" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="101"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101"/>
-      <c r="F24" s="101"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="102"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="77"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2829,16 +2829,16 @@
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="1:29" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="103"/>
-      <c r="J25" s="104"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+      <c r="J25" s="79"/>
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2860,7 +2860,7 @@
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="1:29" s="6" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A26" s="100"/>
+      <c r="A26" s="75"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -3241,19 +3241,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:J25"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:G23"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
@@ -3269,6 +3256,19 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:J25"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A21:G23"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>

--- a/media/system_files/quotation_template_other.xlsx
+++ b/media/system_files/quotation_template_other.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Desktop\ERP\media\system_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF7F795-B9D2-4C9F-8A09-8D898A6B0531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC44EC-2E9F-4A89-AB85-D8B3B970190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{12B76296-03D3-4EB6-8CB4-775C206DF403}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>客戶名稱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -486,18 +486,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>張涵淇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>E-mail</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>wjdz3931@gmail.com</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CONTACT_PERSON</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
@@ -560,6 +552,18 @@
   <si>
     <t>TEL</t>
     <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>維景電資股份有限公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSINESS_ASSISTANT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSINESS_ASSISTANT_mail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -577,7 +581,7 @@
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -764,6 +768,12 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1307,7 +1317,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1531,6 +1541,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2003,7 +2016,7 @@
   <dimension ref="A1:AC37"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:H4"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2026,29 +2039,42 @@
     <col min="29" max="29" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="10.5" customHeight="1"/>
+    <row r="1" spans="1:29" ht="33" customHeight="1">
+      <c r="A1" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+    </row>
     <row r="2" spans="1:29" s="6" customFormat="1" ht="21.9" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="119" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
+      <c r="B2" s="120" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="103"/>
+      <c r="G2" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="104"/>
       <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="69" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="3"/>
@@ -2074,24 +2100,24 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
+      <c r="B3" s="120" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
       <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="104" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="104"/>
+      <c r="G3" s="105" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="105"/>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="3"/>
@@ -2117,19 +2143,19 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="120" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
+      <c r="B4" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="105"/>
+      <c r="G4" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="106"/>
       <c r="I4" s="11" t="s">
         <v>8</v>
       </c>
@@ -2158,10 +2184,10 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="104"/>
+      <c r="B5" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="105"/>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
       <c r="F5" s="12"/>
@@ -2169,7 +2195,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="3"/>
@@ -2195,18 +2221,18 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="118" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
+      <c r="B6" s="119" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="119"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
       <c r="F6" s="9"/>
       <c r="I6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="70" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="3"/>
@@ -2232,20 +2258,20 @@
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
+      <c r="B7" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
       <c r="I7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -2302,12 +2328,12 @@
       <c r="A9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="110" t="s">
+      <c r="B9" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="17" t="s">
         <v>17</v>
       </c>
@@ -2345,21 +2371,21 @@
     </row>
     <row r="10" spans="1:29" s="6" customFormat="1" ht="39.75" customHeight="1">
       <c r="A10" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="114"/>
+        <v>48</v>
+      </c>
+      <c r="B10" s="113"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="96"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="96"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="97"/>
       <c r="O10" s="28"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -2378,10 +2404,10 @@
     </row>
     <row r="11" spans="1:29" s="6" customFormat="1" ht="39.75" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="99"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="100"/>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
@@ -2409,10 +2435,10 @@
     </row>
     <row r="12" spans="1:29" s="6" customFormat="1" ht="24.75" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="99"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="100"/>
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
       <c r="H12" s="24"/>
@@ -2440,10 +2466,10 @@
     </row>
     <row r="13" spans="1:29" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="24"/>
@@ -2471,10 +2497,10 @@
     </row>
     <row r="14" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="30"/>
@@ -2502,10 +2528,10 @@
     </row>
     <row r="15" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="117"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="30"/>
@@ -2533,10 +2559,10 @@
     </row>
     <row r="16" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
@@ -2564,10 +2590,10 @@
     </row>
     <row r="17" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="34"/>
@@ -2595,10 +2621,10 @@
     </row>
     <row r="18" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="32"/>
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
@@ -2626,10 +2652,10 @@
     </row>
     <row r="19" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="34"/>
@@ -2656,18 +2682,18 @@
       <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="1:29" s="6" customFormat="1" ht="107.25" customHeight="1" thickBot="1">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="86"/>
       <c r="K20" s="35"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2689,21 +2715,21 @@
       <c r="AC20" s="3"/>
     </row>
     <row r="21" spans="1:29" s="6" customFormat="1" ht="23.1" customHeight="1" thickTop="1">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="88"/>
-      <c r="H21" s="92" t="s">
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="93"/>
+      <c r="I21" s="94"/>
       <c r="J21" s="36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="3"/>
@@ -2726,19 +2752,19 @@
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="1:29" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="94" t="s">
+      <c r="A22" s="90"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="91"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="I22" s="95"/>
+      <c r="I22" s="96"/>
       <c r="J22" s="38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="3"/>
@@ -2761,19 +2787,19 @@
       <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="1:29" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A23" s="89"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="94" t="s">
+      <c r="A23" s="90"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="95"/>
+      <c r="I23" s="96"/>
       <c r="J23" s="39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="3"/>
@@ -2796,18 +2822,18 @@
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="1:29" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="77"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2829,16 +2855,16 @@
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="1:29" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A25" s="74"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="79"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="80"/>
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2860,7 +2886,7 @@
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="1:29" s="6" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A26" s="75"/>
+      <c r="A26" s="76"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -3068,7 +3094,7 @@
         <v>36</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="9"/>
@@ -3100,10 +3126,10 @@
     </row>
     <row r="33" spans="1:29" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A33" s="59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C33" s="61"/>
       <c r="D33" s="61"/>
@@ -3240,15 +3266,7 @@
       <c r="AC37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B15:E15"/>
+  <mergeCells count="29">
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B6:E6"/>
@@ -3261,6 +3279,8 @@
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:J25"/>
     <mergeCell ref="B19:E19"/>
@@ -3269,10 +3289,17 @@
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B33" r:id="rId1" xr:uid="{E8AB99E6-3646-4095-BF4E-B2EBD8D2C03B}"/>
+    <hyperlink ref="B33" r:id="rId1" display="wjdz3931@gmail.com" xr:uid="{E8AB99E6-3646-4095-BF4E-B2EBD8D2C03B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="0.55118110236220474" bottom="0.11811023622047245" header="0.11811023622047245" footer="0.11811023622047245"/>

--- a/media/system_files/quotation_template_other.xlsx
+++ b/media/system_files/quotation_template_other.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_Desktop\ERP\media\system_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EC44EC-2E9F-4A89-AB85-D8B3B970190D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B962AC30-865F-45A2-AA5E-3BC0638826DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{12B76296-03D3-4EB6-8CB4-775C206DF403}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>客戶名稱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -322,18 +322,164 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>合計未稅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>稅額5%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>總計含稅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>備  註:</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>報價單位</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>維景電資股份有限公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>客戶簽章</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>85072779</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司電話</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>07-3733931</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司傳真</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>07-3732865</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務助理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>E-mail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTACT_PERSON</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAX_ID</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOBILE</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>PROJECT_NAME</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>QUOTATION_ID</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>quote_date</t>
+  </si>
+  <si>
+    <t>QUOTE_VALIDITY_PERIOD</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>ITEM_LIST</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>sum_five</t>
+  </si>
+  <si>
+    <t>all_sum</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hide_name</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEL</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>維景電資股份有限公司</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSINESS_ASSISTANT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSINESS_ASSISTANT_mail</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>pay_method</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Wingdings"/>
         <charset val="2"/>
       </rPr>
-      <t xml:space="preserve">v </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
@@ -343,27 +489,27 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+※</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Wingdings"/>
         <charset val="2"/>
       </rPr>
-      <t xml:space="preserve">v </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
@@ -373,27 +519,27 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
       <t xml:space="preserve">
-</t>
+※</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Wingdings"/>
         <charset val="2"/>
       </rPr>
-      <t xml:space="preserve">v </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
@@ -403,7 +549,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="標楷體"/>
         <family val="4"/>
@@ -412,158 +558,7 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Wingdings"/>
-        <charset val="2"/>
-      </rPr>
-      <t xml:space="preserve">v </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>付款方式:完工請款100%.初次交易，請配合開立即期票或匯款。</t>
-    </r>
     <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>合計未稅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>稅額5%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>總計含稅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>備  註:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>報價單位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>維景電資股份有限公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>客戶簽章</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>85072779</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司電話</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>07-3733931</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司傳真</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>07-3732865</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>業務助理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>E-mail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONTACT_PERSON</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAX_ID</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>MOBILE</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMAIL</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>PROJECT_NAME</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAX</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>QUOTATION_ID</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>quote_date</t>
-  </si>
-  <si>
-    <t>QUOTE_VALIDITY_PERIOD</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>ITEM_LIST</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUM</t>
-  </si>
-  <si>
-    <t>sum_five</t>
-  </si>
-  <si>
-    <t>all_sum</t>
-  </si>
-  <si>
-    <t>CLIENT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>hide_name</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEL</t>
-    <phoneticPr fontId="25" type="noConversion"/>
-  </si>
-  <si>
-    <t>維景電資股份有限公司</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_ASSISTANT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_ASSISTANT_mail</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -581,7 +576,7 @@
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -713,26 +708,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF002060"/>
@@ -774,6 +749,53 @@
       <color theme="1"/>
       <name val="微軟正黑體"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -789,7 +811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1003,26 +1025,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF0000FF"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1063,24 +1065,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color rgb="FF0000FF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF0000FF"/>
       </left>
@@ -1301,6 +1285,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1317,7 +1364,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,61 +1478,61 @@
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1494,28 +1541,28 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1527,10 +1574,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="180" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1542,28 +1589,82 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1587,78 +1688,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="19" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1668,15 +1715,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1686,14 +1724,32 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="177" fontId="31" fillId="0" borderId="41" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="42" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="43" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="44" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="45" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2015,8 +2071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43428764-700C-4158-974D-DE8C2480C466}">
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -2040,41 +2096,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="33" customHeight="1">
-      <c r="A1" s="73" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="A1" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
     </row>
     <row r="2" spans="1:29" s="6" customFormat="1" ht="21.9" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="120" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="B2" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
       <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="104"/>
+      <c r="G2" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="108"/>
       <c r="I2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="3"/>
@@ -2100,24 +2156,24 @@
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="120" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
+      <c r="B3" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="105" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="105"/>
+      <c r="G3" s="79" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="79"/>
       <c r="I3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3" s="8"/>
       <c r="L3" s="3"/>
@@ -2143,19 +2199,19 @@
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
+      <c r="B4" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="106"/>
+      <c r="G4" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="109"/>
       <c r="I4" s="11" t="s">
         <v>8</v>
       </c>
@@ -2184,10 +2240,10 @@
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="105" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="105"/>
+      <c r="B5" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="79"/>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
       <c r="F5" s="12"/>
@@ -2195,7 +2251,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="3"/>
@@ -2221,18 +2277,18 @@
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="119" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
+      <c r="B6" s="76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="9"/>
       <c r="I6" s="11" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="3"/>
@@ -2259,7 +2315,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="110"/>
       <c r="D7" s="110"/>
@@ -2271,7 +2327,7 @@
         <v>14</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -2371,21 +2427,21 @@
     </row>
     <row r="10" spans="1:29" s="6" customFormat="1" ht="39.75" customHeight="1">
       <c r="A10" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
+        <v>47</v>
+      </c>
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
       <c r="F10" s="22"/>
       <c r="G10" s="23"/>
       <c r="H10" s="24"/>
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
+      <c r="K10" s="80"/>
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
       <c r="O10" s="28"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
@@ -2404,10 +2460,10 @@
     </row>
     <row r="11" spans="1:29" s="6" customFormat="1" ht="39.75" customHeight="1">
       <c r="A11" s="21"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="100"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="22"/>
       <c r="G11" s="23"/>
       <c r="H11" s="24"/>
@@ -2435,10 +2491,10 @@
     </row>
     <row r="12" spans="1:29" s="6" customFormat="1" ht="24.75" customHeight="1">
       <c r="A12" s="21"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="83"/>
       <c r="F12" s="22"/>
       <c r="G12" s="23"/>
       <c r="H12" s="24"/>
@@ -2466,10 +2522,10 @@
     </row>
     <row r="13" spans="1:29" s="6" customFormat="1" ht="23.25" customHeight="1">
       <c r="A13" s="21"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="24"/>
@@ -2497,10 +2553,10 @@
     </row>
     <row r="14" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A14" s="21"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="86"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="30"/>
@@ -2528,10 +2584,10 @@
     </row>
     <row r="15" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A15" s="21"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="118"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="115"/>
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="30"/>
@@ -2559,10 +2615,10 @@
     </row>
     <row r="16" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A16" s="22"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="32"/>
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
@@ -2590,10 +2646,10 @@
     </row>
     <row r="17" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A17" s="22"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="109"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
       <c r="F17" s="32"/>
       <c r="G17" s="33"/>
       <c r="H17" s="34"/>
@@ -2621,10 +2677,10 @@
     </row>
     <row r="18" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="107"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="32"/>
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
@@ -2652,10 +2708,10 @@
     </row>
     <row r="19" spans="1:29" s="31" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="A19" s="22"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="83"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="100"/>
       <c r="F19" s="32"/>
       <c r="G19" s="33"/>
       <c r="H19" s="34"/>
@@ -2682,18 +2738,18 @@
       <c r="AC19" s="3"/>
     </row>
     <row r="20" spans="1:29" s="6" customFormat="1" ht="107.25" customHeight="1" thickBot="1">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="86"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="103"/>
       <c r="K20" s="35"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2715,21 +2771,21 @@
       <c r="AC20" s="3"/>
     </row>
     <row r="21" spans="1:29" s="6" customFormat="1" ht="23.1" customHeight="1" thickTop="1">
-      <c r="A21" s="87" t="s">
+      <c r="A21" s="116" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="94"/>
+      <c r="I21" s="105"/>
       <c r="J21" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K21" s="37"/>
       <c r="L21" s="3"/>
@@ -2752,19 +2808,19 @@
       <c r="AC21" s="3"/>
     </row>
     <row r="22" spans="1:29" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="A22" s="90"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="95" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="96"/>
+      <c r="A22" s="119"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="106" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="107"/>
       <c r="J22" s="38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="3"/>
@@ -2787,19 +2843,21 @@
       <c r="AC22" s="3"/>
     </row>
     <row r="23" spans="1:29" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="A23" s="90"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="92"/>
-      <c r="H23" s="95" t="s">
-        <v>26</v>
-      </c>
-      <c r="I23" s="96"/>
+      <c r="A23" s="122" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="123"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="106" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="107"/>
       <c r="J23" s="39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" s="37"/>
       <c r="L23" s="3"/>
@@ -2822,18 +2880,18 @@
       <c r="AC23" s="3"/>
     </row>
     <row r="24" spans="1:29" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A24" s="74" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
+      <c r="A24" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="95"/>
       <c r="K24" s="2"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2855,16 +2913,16 @@
       <c r="AC24" s="3"/>
     </row>
     <row r="25" spans="1:29" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A25" s="75"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="80"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="97"/>
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2886,7 +2944,7 @@
       <c r="AC25" s="3"/>
     </row>
     <row r="26" spans="1:29" s="6" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A26" s="76"/>
+      <c r="A26" s="93"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -2949,17 +3007,17 @@
     </row>
     <row r="28" spans="1:29" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A28" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="44" t="s">
         <v>28</v>
-      </c>
-      <c r="B28" s="44" t="s">
-        <v>29</v>
       </c>
       <c r="C28" s="45"/>
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="46"/>
       <c r="G28" s="47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28" s="48"/>
       <c r="I28" s="48"/>
@@ -2989,7 +3047,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -3021,10 +3079,10 @@
     </row>
     <row r="30" spans="1:29" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -3056,10 +3114,10 @@
     </row>
     <row r="31" spans="1:29" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -3091,10 +3149,10 @@
     </row>
     <row r="32" spans="1:29" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="9"/>
@@ -3126,10 +3184,10 @@
     </row>
     <row r="33" spans="1:29" s="6" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A33" s="59" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="61"/>
       <c r="D33" s="61"/>
@@ -3266,26 +3324,14 @@
       <c r="AC37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B10:E10"/>
+  <mergeCells count="30">
+    <mergeCell ref="A21:G22"/>
+    <mergeCell ref="A23:G23"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="B24:J25"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A21:G23"/>
     <mergeCell ref="H21:I21"/>
     <mergeCell ref="H22:I22"/>
     <mergeCell ref="H23:I23"/>
@@ -3296,6 +3342,19 @@
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
